--- a/test_results/pipeline_output/financial_model.xlsx
+++ b/test_results/pipeline_output/financial_model.xlsx
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,7 +447,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Version: cbb34e21-3793-4993-ad71-01f39aaaf7e7</t>
+          <t>Version: 802b55d6-8499-424a-ad8f-85fcf124d550</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Ebitda</t>
+          <t>Dso Days</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -766,7 +766,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Ebitda Margin</t>
+          <t>Ebitda</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -775,7 +775,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Fcf Conversion</t>
+          <t>Ebitda Margin</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -784,7 +784,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Interest Cover</t>
+          <t>Fcf Conversion</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
@@ -793,7 +793,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Net Debt Ex Leases</t>
+          <t>Interest Cover</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
@@ -802,7 +802,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Net Debt Incl Leases</t>
+          <t>Net Debt Ex Leases</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -811,11 +811,29 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Net Debt To Ebitda</t>
+          <t>Net Debt Incl Leases</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Net Debt To Ebitda</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Wc Intensity</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/test_results/pipeline_output/financial_model.xlsx
+++ b/test_results/pipeline_output/financial_model.xlsx
@@ -7,7 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Financial model" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Income Statement" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Balance Sheet" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cash Flow" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Full Model" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +21,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="8">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -27,18 +31,41 @@
     </font>
     <font>
       <b val="1"/>
-      <sz val="14"/>
+      <sz val="16"/>
     </font>
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="14"/>
+    </font>
+    <font/>
+    <font>
+      <b val="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002F5496"/>
+        <bgColor rgb="002F5496"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -53,10 +80,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -422,7 +457,757 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="32" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Credit Analysis — Financial Model</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Company: Sample (Pty) Ltd</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Version: 0aca3bd4-698d-4f90-9bf8-7db47d38126b</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Internal Rating:</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Aggregate Score:</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>48.1/100</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>Key Ratios</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>2023-06-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Current Ratio</t>
+        </is>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>20.77307890665291</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>13.59074136195907</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>5.667016334482242</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>Dso Days</t>
+        </is>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>Ebitda</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="n">
+        <v>6931</v>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>5817</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>6042</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>Ebitda Margin</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>2.742767143778616</v>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>2.506376891523905</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>2.810807793222799</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>Fcf Conversion</t>
+        </is>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>2.49660943586784</v>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>3.362386109678528</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>2.387454485269778</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>Interest Cover</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>2.921407624633431</v>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>3.048880327474115</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>3.366139585605235</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>Net Debt Ex Leases</t>
+        </is>
+      </c>
+      <c r="B15" s="6" t="n">
+        <v>-8083</v>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>-8837</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>-5944</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>Net Debt Incl Leases</t>
+        </is>
+      </c>
+      <c r="B16" s="6" t="n">
+        <v>35033</v>
+      </c>
+      <c r="C16" s="6" t="n">
+        <v>27865</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>26538</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>Net Debt To Ebitda</t>
+        </is>
+      </c>
+      <c r="B17" s="5" t="n">
+        <v>5.054537584764104</v>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>4.790269898573148</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>4.392254220456802</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>Wc Intensity</t>
+        </is>
+      </c>
+      <c r="B18" s="5" t="n">
+        <v>0.1197</v>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>0.1236</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>0.1172</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>Income Statement</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Line Item</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>2023-06-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>Gross Profit</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="n">
+        <v>61442</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>55539</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>51706</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="inlineStr">
+        <is>
+          <t>Income Tax Expense</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>-2793</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>-2805</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>-2812</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="inlineStr">
+        <is>
+          <t>Operating Expenses</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>-22366</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>-21916</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>-20998</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="inlineStr">
+        <is>
+          <t>Operating Profit</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>14943</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>12662</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>12347</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="inlineStr">
+        <is>
+          <t>Profit After Tax</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>7583</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>6221</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>5901</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="inlineStr">
+        <is>
+          <t>Profit Before Tax</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="n">
+        <v>10185</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>9026</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>9132</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="n">
+        <v>252701</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>232088</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>214956</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="inlineStr">
+        <is>
+          <t>Share Of Profit Associates</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>250</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>268</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>251</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>Balance Sheet</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Line Item</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>2023-06-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>Cash And Cash Equivalents</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="n">
+        <v>9946</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>11732</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>12548</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="inlineStr">
+        <is>
+          <t>Cash Generated Operations</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>21890</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>23628</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>18237</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="inlineStr">
+        <is>
+          <t>Intangible Assets</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>5700</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>4695</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>4225</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="inlineStr">
+        <is>
+          <t>Inventories</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>29748</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>28366</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>25090</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="inlineStr">
+        <is>
+          <t>Lease Liabilities Current</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>43116</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>36702</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>32482</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="inlineStr">
+        <is>
+          <t>Right Of Use Assets</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="n">
+        <v>36090</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>30469</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>26781</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Total Assets</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="n">
+        <v>124944</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>112328</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>102450</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>Total Equity</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>7516</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>7516</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>7516</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>Total Liabilities</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="n">
+        <v>94827</v>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>84604</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>76172</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="8" t="inlineStr">
+        <is>
+          <t>Trade Payables</t>
+        </is>
+      </c>
+      <c r="B12" s="6" t="n">
+        <v>76</v>
+      </c>
+      <c r="C12" s="6" t="n">
+        <v>86</v>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="8" t="inlineStr">
+        <is>
+          <t>Trade Receivables</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="n">
+        <v>585</v>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>416</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>Cash Flow</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Line Item</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>2023-06-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>Capex</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="n">
+        <v>-6320</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>-5718</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>-4594</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="inlineStr">
+        <is>
+          <t>Net Cfo</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>10984</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>13841</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>9831</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,409 +1216,678 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Credit Analysis AI — Financial model</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Company: Sample (Pty) Ltd</t>
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t>All Line Items</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Version: 802b55d6-8499-424a-ad8f-85fcf124d550</t>
-        </is>
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Line Item</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>2023-06-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Capex</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>-6320</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>-5718</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>-4594</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Line item</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-06-30</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2024-06-30</t>
-        </is>
+          <t>Cash And Cash Equivalents</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>9946</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>11732</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>12548</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Capex</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+          <t>Cash Generated Operations</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>21890</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>23628</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>18237</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Cash And Cash Equivalents</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+          <t>Depreciation Amortisation</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>-8012</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-6845</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-6305</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Cash Generated Operations</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
+          <t>Dividends Paid</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="n">
+        <v>-3985</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-3743</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-3370</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Depreciation Amortisation</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
+          <t>Finance Costs</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="n">
+        <v>-5115</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>-4153</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>-3668</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Dividends Paid</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
+          <t>Finance Income</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>357</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>517</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>453</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Finance Costs</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
+          <t>Gross Profit</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="n">
+        <v>61442</v>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>55539</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>51706</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Finance Income</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
+          <t>Income Tax Expense</t>
+        </is>
+      </c>
+      <c r="B12" s="6" t="n">
+        <v>-2793</v>
+      </c>
+      <c r="C12" s="6" t="n">
+        <v>-2805</v>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>-2812</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Gross Profit</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
+          <t>Intangible Assets</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="n">
+        <v>5700</v>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>4695</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>4225</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Income Tax Expense</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
+          <t>Interest Paid</t>
+        </is>
+      </c>
+      <c r="B14" s="6" t="n">
+        <v>-5166</v>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-4305</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-3664</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Intangible Assets</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
+          <t>Inventories</t>
+        </is>
+      </c>
+      <c r="B15" s="6" t="n">
+        <v>29748</v>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>28366</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>25090</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Interest Paid</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
+          <t>Investment Property</t>
+        </is>
+      </c>
+      <c r="B16" s="6" t="n">
+        <v>128</v>
+      </c>
+      <c r="C16" s="6" t="n">
+        <v>617</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Inventories</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
+          <t>Investments And Associates</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="n">
+        <v>2452</v>
+      </c>
+      <c r="C17" s="6" t="n">
+        <v>2478</v>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>2312</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Investment Property</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
+          <t>Lease Liabilities Current</t>
+        </is>
+      </c>
+      <c r="B18" s="6" t="n">
+        <v>43116</v>
+      </c>
+      <c r="C18" s="6" t="n">
+        <v>36702</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>32482</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Investments And Associates</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
+          <t>Net Cfo</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="n">
+        <v>10984</v>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>13841</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>9831</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Lease Liabilities Current</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
+          <t>Operating Expenses</t>
+        </is>
+      </c>
+      <c r="B20" s="6" t="n">
+        <v>-22366</v>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-21916</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-20998</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Net Cfo</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
+          <t>Operating Profit</t>
+        </is>
+      </c>
+      <c r="B21" s="6" t="n">
+        <v>14943</v>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>12662</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>12347</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Operating Expenses</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
+          <t>Profit After Tax</t>
+        </is>
+      </c>
+      <c r="B22" s="6" t="n">
+        <v>7583</v>
+      </c>
+      <c r="C22" s="6" t="n">
+        <v>6221</v>
+      </c>
+      <c r="D22" s="6" t="n">
+        <v>5901</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Operating Profit</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
+          <t>Profit Before Tax</t>
+        </is>
+      </c>
+      <c r="B23" s="6" t="n">
+        <v>10185</v>
+      </c>
+      <c r="C23" s="6" t="n">
+        <v>9026</v>
+      </c>
+      <c r="D23" s="6" t="n">
+        <v>9132</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Profit After Tax</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
+          <t>Property Plant Equipment</t>
+        </is>
+      </c>
+      <c r="B24" s="6" t="n">
+        <v>22536</v>
+      </c>
+      <c r="C24" s="6" t="n">
+        <v>19672</v>
+      </c>
+      <c r="D24" s="6" t="n">
+        <v>16601</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Profit Before Tax</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="B25" s="6" t="n">
+        <v>252701</v>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>232088</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>214956</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Property Plant Equipment</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
+          <t>Right Of Use Assets</t>
+        </is>
+      </c>
+      <c r="B26" s="6" t="n">
+        <v>36090</v>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>30469</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>26781</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Revenue</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
+          <t>Share Of Profit Associates</t>
+        </is>
+      </c>
+      <c r="B27" s="6" t="n">
+        <v>250</v>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>268</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>251</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Right Of Use Assets</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
+          <t>Short Term Borrowings</t>
+        </is>
+      </c>
+      <c r="B28" s="6" t="n">
+        <v>1863</v>
+      </c>
+      <c r="C28" s="6" t="n">
+        <v>2895</v>
+      </c>
+      <c r="D28" s="6" t="n">
+        <v>6604</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Share Of Profit Associates</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
+          <t>Total Assets</t>
+        </is>
+      </c>
+      <c r="B29" s="6" t="n">
+        <v>124944</v>
+      </c>
+      <c r="C29" s="6" t="n">
+        <v>112328</v>
+      </c>
+      <c r="D29" s="6" t="n">
+        <v>102450</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Short Term Borrowings</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
+          <t>Total Equity</t>
+        </is>
+      </c>
+      <c r="B30" s="6" t="n">
+        <v>7516</v>
+      </c>
+      <c r="C30" s="6" t="n">
+        <v>7516</v>
+      </c>
+      <c r="D30" s="6" t="n">
+        <v>7516</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Total Assets</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
+          <t>Total Liabilities</t>
+        </is>
+      </c>
+      <c r="B31" s="6" t="n">
+        <v>94827</v>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>84604</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>76172</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Total Equity</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
+          <t>Trade Payables</t>
+        </is>
+      </c>
+      <c r="B32" s="6" t="n">
+        <v>76</v>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>86</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Total Liabilities</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Trade Payables</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
+          <t>Trade Receivables</t>
+        </is>
+      </c>
+      <c r="B33" s="6" t="n">
+        <v>585</v>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>416</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>178</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Trade Receivables</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
+      <c r="A35" s="10" t="inlineStr">
+        <is>
+          <t>Ratios &amp; Metrics</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Current Ratio</t>
+        </is>
+      </c>
+      <c r="B36" s="5" t="n">
+        <v>20.77307890665291</v>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>13.59074136195907</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>5.667016334482242</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="inlineStr">
-        <is>
-          <t>Metrics</t>
-        </is>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Dso Days</t>
+        </is>
+      </c>
+      <c r="B37" s="5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C37" s="5" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D37" s="5" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Current Ratio</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
+          <t>Ebitda</t>
+        </is>
+      </c>
+      <c r="B38" s="5" t="n">
+        <v>6931</v>
+      </c>
+      <c r="C38" s="5" t="n">
+        <v>5817</v>
+      </c>
+      <c r="D38" s="5" t="n">
+        <v>6042</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Dso Days</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
+          <t>Ebitda Margin</t>
+        </is>
+      </c>
+      <c r="B39" s="5" t="n">
+        <v>2.742767143778616</v>
+      </c>
+      <c r="C39" s="5" t="n">
+        <v>2.506376891523905</v>
+      </c>
+      <c r="D39" s="5" t="n">
+        <v>2.810807793222799</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Ebitda</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
+          <t>Fcf Conversion</t>
+        </is>
+      </c>
+      <c r="B40" s="5" t="n">
+        <v>2.49660943586784</v>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>3.362386109678528</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>2.387454485269778</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Ebitda Margin</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
+          <t>Interest Cover</t>
+        </is>
+      </c>
+      <c r="B41" s="5" t="n">
+        <v>2.921407624633431</v>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>3.048880327474115</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>3.366139585605235</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Fcf Conversion</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
+          <t>Net Debt Ex Leases</t>
+        </is>
+      </c>
+      <c r="B42" s="5" t="n">
+        <v>-8083</v>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>-8837</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>-5944</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Interest Cover</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
+          <t>Net Debt Incl Leases</t>
+        </is>
+      </c>
+      <c r="B43" s="5" t="n">
+        <v>35033</v>
+      </c>
+      <c r="C43" s="5" t="n">
+        <v>27865</v>
+      </c>
+      <c r="D43" s="5" t="n">
+        <v>26538</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Net Debt Ex Leases</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
+          <t>Net Debt To Ebitda</t>
+        </is>
+      </c>
+      <c r="B44" s="5" t="n">
+        <v>5.054537584764104</v>
+      </c>
+      <c r="C44" s="5" t="n">
+        <v>4.790269898573148</v>
+      </c>
+      <c r="D44" s="5" t="n">
+        <v>4.392254220456802</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Net Debt Incl Leases</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Net Debt To Ebitda</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
           <t>Wc Intensity</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
+      <c r="B45" s="5" t="n">
+        <v>0.1197</v>
+      </c>
+      <c r="C45" s="5" t="n">
+        <v>0.1236</v>
+      </c>
+      <c r="D45" s="5" t="n">
+        <v>0.1172</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/test_results/pipeline_output/financial_model.xlsx
+++ b/test_results/pipeline_output/financial_model.xlsx
@@ -12,6 +12,17 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Balance Sheet" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cash Flow" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Full Model" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Extracted AFS" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Normalized Mapping" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Adjusted Financials" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ratio Engine" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Lease Adjustments" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Debt Schedule" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Covenant Testing" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stress Test Engine" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rating Scorecard" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Credit Risk Quant" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Graph Dashboard" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +468,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +480,8 @@
     <col width="14" customWidth="1" min="2" max="2"/>
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -488,7 +501,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Version: 0aca3bd4-698d-4f90-9bf8-7db47d38126b</t>
+          <t>Version: 934cf94f-4810-4d36-8245-8aed83405521</t>
         </is>
       </c>
     </row>
@@ -537,6 +550,16 @@
           <t>2023-06-30</t>
         </is>
       </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>2021-06-30</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -553,6 +576,12 @@
       <c r="D9" s="5" t="n">
         <v>5.667016334482242</v>
       </c>
+      <c r="E9" s="5" t="n">
+        <v>1.237847025495751</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.27225682798275</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -569,6 +598,12 @@
       <c r="D10" s="5" t="n">
         <v>0.3</v>
       </c>
+      <c r="E10" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -585,6 +620,12 @@
       <c r="D11" s="6" t="n">
         <v>6042</v>
       </c>
+      <c r="E11" s="6" t="n">
+        <v>5671</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>4328</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
@@ -601,6 +642,12 @@
       <c r="D12" s="5" t="n">
         <v>2.810807793222799</v>
       </c>
+      <c r="E12" s="5" t="n">
+        <v>3.084277851502164</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>2.575730524311135</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -617,6 +664,12 @@
       <c r="D13" s="5" t="n">
         <v>2.387454485269778</v>
       </c>
+      <c r="E13" s="5" t="n">
+        <v>1.747134544172104</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>2.313539741219963</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
@@ -633,6 +686,12 @@
       <c r="D14" s="5" t="n">
         <v>3.366139585605235</v>
       </c>
+      <c r="E14" s="5" t="n">
+        <v>3.693618443033746</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>3.122455573505655</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
@@ -649,6 +708,12 @@
       <c r="D15" s="6" t="n">
         <v>-5944</v>
       </c>
+      <c r="E15" s="6" t="n">
+        <v>-5667</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>-6729</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
@@ -665,6 +730,12 @@
       <c r="D16" s="6" t="n">
         <v>26538</v>
       </c>
+      <c r="E16" s="6" t="n">
+        <v>22791</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>18072</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
@@ -681,6 +752,12 @@
       <c r="D17" s="5" t="n">
         <v>4.392254220456802</v>
       </c>
+      <c r="E17" s="5" t="n">
+        <v>4.018867924528302</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>4.175600739371534</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
@@ -696,6 +773,974 @@
       </c>
       <c r="D18" s="5" t="n">
         <v>0.1172</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.0034</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>-0.0062</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="21" customWidth="1" min="1" max="1"/>
+    <col width="21" customWidth="1" min="2" max="2"/>
+    <col width="21" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="21" customWidth="1" min="5" max="5"/>
+    <col width="21" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>Lease Adjustments</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Line Item</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>2023-06-30</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>2021-06-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>Net Debt Ex Leases</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="n">
+        <v>-8083</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>-8837</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>-5944</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>-5667</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>-6729</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="inlineStr">
+        <is>
+          <t>Net Debt Incl Leases</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>35033</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>27865</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>26538</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>22791</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>18072</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>Debt Schedule</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Line Item</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>2023-06-30</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>2021-06-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>Interest Cover</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="n">
+        <v>2.921407624633431</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>3.048880327474115</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>3.366139585605235</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>3.693618443033746</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>3.122455573505655</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="inlineStr">
+        <is>
+          <t>Net Debt Ex Leases</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>-8083</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>-8837</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>-5944</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>-5667</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-6729</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="inlineStr">
+        <is>
+          <t>Net Debt Incl Leases</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>35033</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>27865</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>26538</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>22791</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>18072</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="inlineStr">
+        <is>
+          <t>Net Debt To Ebitda</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>5.054537584764104</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>4.790269898573148</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>4.392254220456802</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>4.018867924528302</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>4.175600739371534</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="34" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Covenant</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Covenant Leverage Max</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Current ND/EBITDA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Leverage Breach</t>
+        </is>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>BREACH</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Covenant Interest Cover Min</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Current Interest Cover</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Interest Cover Breach</t>
+        </is>
+      </c>
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>BREACH</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Leverage Headroom %</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-83.59999999999999</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Coverage Headroom %</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-61.7</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="24" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Scenario</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>ND/EBITDA (stressed)</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Interest Cover (stressed)</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Cash After Shock</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>A_revenue_minus_10pct</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>B_interest_plus_200bps</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C_working_capital_shock</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>-15324.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>D_margin_compression_200bps</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>18.66</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>E_combined</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Section</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Rating</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Business Risk</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>64.2</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Financial Performance</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Liquidity</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>40</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Weak</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Leverage</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Weak</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Accounting Quality</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>40</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Weak</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Final Internal Rating</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Aggregate Score</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>48.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="36" customWidth="1" min="1" max="1"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t>Credit Risk Quantification</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Internal Rating</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>IFRS 9 Stage (proxy)</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Stage 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PD</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.80%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>LGD</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>53.73%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Downturn LGD</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>67.16%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>EAD</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>35033</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Drawn Exposure</t>
+        </is>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>35033</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Undrawn Commitments</t>
+        </is>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CCF</t>
+        </is>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Expected Loss (EL)</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>150.587575</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Downturn EL</t>
+        </is>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>188.23446875</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="2" max="2"/>
+    <col width="16" customWidth="1" min="3" max="3"/>
+    <col width="16" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t>Graph Dashboard Inputs</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Period</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>EBITDA</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>ND/EBITDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>252701</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6931</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.054537584764104</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>232088</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5817</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.790269898573148</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2023-06-30</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>214956</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6042</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.392254220456802</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>183868</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5671</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.018867924528302</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2021-06-30</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>168030</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4328</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.175600739371534</v>
       </c>
     </row>
   </sheetData>
@@ -709,7 +1754,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -721,6 +1766,8 @@
     <col width="20" customWidth="1" min="2" max="2"/>
     <col width="20" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -751,6 +1798,16 @@
           <t>2023-06-30</t>
         </is>
       </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>2021-06-30</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="inlineStr">
@@ -767,6 +1824,12 @@
       <c r="D3" s="6" t="n">
         <v>51706</v>
       </c>
+      <c r="E3" s="6" t="n">
+        <v>45022</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>41213</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="inlineStr">
@@ -783,6 +1846,12 @@
       <c r="D4" s="6" t="n">
         <v>-2812</v>
       </c>
+      <c r="E4" s="6" t="n">
+        <v>-2553</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-2241</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="inlineStr">
@@ -799,6 +1868,12 @@
       <c r="D5" s="6" t="n">
         <v>-20998</v>
       </c>
+      <c r="E5" s="6" t="n">
+        <v>-17288</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-14928</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="inlineStr">
@@ -815,6 +1890,12 @@
       <c r="D6" s="6" t="n">
         <v>12347</v>
       </c>
+      <c r="E6" s="6" t="n">
+        <v>11055</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>9664</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="8" t="inlineStr">
@@ -831,6 +1912,12 @@
       <c r="D7" s="6" t="n">
         <v>5901</v>
       </c>
+      <c r="E7" s="6" t="n">
+        <v>5740</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>4859</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="inlineStr">
@@ -847,6 +1934,12 @@
       <c r="D8" s="6" t="n">
         <v>9132</v>
       </c>
+      <c r="E8" s="6" t="n">
+        <v>8332</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>6957</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="inlineStr">
@@ -863,6 +1956,12 @@
       <c r="D9" s="6" t="n">
         <v>214956</v>
       </c>
+      <c r="E9" s="6" t="n">
+        <v>183868</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>168030</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="8" t="inlineStr">
@@ -878,6 +1977,12 @@
       </c>
       <c r="D10" s="6" t="n">
         <v>251</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>208</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -891,7 +1996,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,6 +2008,8 @@
     <col width="18" customWidth="1" min="2" max="2"/>
     <col width="18" customWidth="1" min="3" max="3"/>
     <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -933,6 +2040,16 @@
           <t>2023-06-30</t>
         </is>
       </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>2021-06-30</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="inlineStr">
@@ -949,6 +2066,12 @@
       <c r="D3" s="6" t="n">
         <v>12548</v>
       </c>
+      <c r="E3" s="6" t="n">
+        <v>10665</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>7950</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="inlineStr">
@@ -965,6 +2088,12 @@
       <c r="D4" s="6" t="n">
         <v>18237</v>
       </c>
+      <c r="E4" s="6" t="n">
+        <v>15005</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>16124</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="inlineStr">
@@ -981,6 +2110,12 @@
       <c r="D5" s="6" t="n">
         <v>4225</v>
       </c>
+      <c r="E5" s="6" t="n">
+        <v>3561</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>3010</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="inlineStr">
@@ -997,6 +2132,12 @@
       <c r="D6" s="6" t="n">
         <v>25090</v>
       </c>
+      <c r="E6" s="6" t="n">
+        <v>21879</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>18396</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="8" t="inlineStr">
@@ -1013,6 +2154,12 @@
       <c r="D7" s="6" t="n">
         <v>32482</v>
       </c>
+      <c r="E7" s="6" t="n">
+        <v>28458</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>24801</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="inlineStr">
@@ -1029,6 +2176,12 @@
       <c r="D8" s="6" t="n">
         <v>26781</v>
       </c>
+      <c r="E8" s="6" t="n">
+        <v>23725</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>20520</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -1045,6 +2198,12 @@
       <c r="D9" s="6" t="n">
         <v>102450</v>
       </c>
+      <c r="E9" s="6" t="n">
+        <v>91455</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>77066</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -1061,6 +2220,12 @@
       <c r="D10" s="6" t="n">
         <v>7516</v>
       </c>
+      <c r="E10" s="6" t="n">
+        <v>7516</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>7516</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -1077,6 +2242,12 @@
       <c r="D11" s="6" t="n">
         <v>76172</v>
       </c>
+      <c r="E11" s="6" t="n">
+        <v>65828</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>55862</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="8" t="inlineStr">
@@ -1093,6 +2264,12 @@
       <c r="D12" s="6" t="n">
         <v>69</v>
       </c>
+      <c r="E12" s="6" t="n">
+        <v>21477</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>19649</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="inlineStr">
@@ -1108,6 +2285,12 @@
       </c>
       <c r="D13" s="6" t="n">
         <v>178</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>228</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -1121,7 +2304,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1133,6 +2316,8 @@
     <col width="18" customWidth="1" min="2" max="2"/>
     <col width="18" customWidth="1" min="3" max="3"/>
     <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1163,6 +2348,16 @@
           <t>2023-06-30</t>
         </is>
       </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>2021-06-30</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="inlineStr">
@@ -1179,6 +2374,12 @@
       <c r="D3" s="6" t="n">
         <v>-4594</v>
       </c>
+      <c r="E3" s="6" t="n">
+        <v>-3222</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>-2030</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="inlineStr">
@@ -1194,6 +2395,12 @@
       </c>
       <c r="D4" s="6" t="n">
         <v>9831</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>6686</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>7983</v>
       </c>
     </row>
   </sheetData>
@@ -1207,7 +2414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1243,6 +2450,16 @@
           <t>2023-06-30</t>
         </is>
       </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>2021-06-30</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1259,6 +2476,12 @@
       <c r="D4" s="6" t="n">
         <v>-4594</v>
       </c>
+      <c r="E4" s="6" t="n">
+        <v>-3222</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-2030</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1275,6 +2498,12 @@
       <c r="D5" s="6" t="n">
         <v>12548</v>
       </c>
+      <c r="E5" s="6" t="n">
+        <v>10665</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>7950</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1291,6 +2520,12 @@
       <c r="D6" s="6" t="n">
         <v>18237</v>
       </c>
+      <c r="E6" s="6" t="n">
+        <v>15005</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>16124</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1307,6 +2542,12 @@
       <c r="D7" s="6" t="n">
         <v>-6305</v>
       </c>
+      <c r="E7" s="6" t="n">
+        <v>-5384</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-5336</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1323,6 +2564,12 @@
       <c r="D8" s="6" t="n">
         <v>-3370</v>
       </c>
+      <c r="E8" s="6" t="n">
+        <v>-3228</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-2330</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1339,6 +2586,12 @@
       <c r="D9" s="6" t="n">
         <v>-3668</v>
       </c>
+      <c r="E9" s="6" t="n">
+        <v>-2993</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>-3095</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1355,6 +2608,12 @@
       <c r="D10" s="6" t="n">
         <v>453</v>
       </c>
+      <c r="E10" s="6" t="n">
+        <v>270</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>268</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1371,6 +2630,12 @@
       <c r="D11" s="6" t="n">
         <v>51706</v>
       </c>
+      <c r="E11" s="6" t="n">
+        <v>45022</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>41213</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1387,6 +2652,12 @@
       <c r="D12" s="6" t="n">
         <v>-2812</v>
       </c>
+      <c r="E12" s="6" t="n">
+        <v>-2553</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>-2241</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1403,6 +2674,12 @@
       <c r="D13" s="6" t="n">
         <v>4225</v>
       </c>
+      <c r="E13" s="6" t="n">
+        <v>3561</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>3010</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1419,6 +2696,12 @@
       <c r="D14" s="6" t="n">
         <v>-3664</v>
       </c>
+      <c r="E14" s="6" t="n">
+        <v>-3034</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-3157</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1435,6 +2718,12 @@
       <c r="D15" s="6" t="n">
         <v>25090</v>
       </c>
+      <c r="E15" s="6" t="n">
+        <v>21879</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>18396</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1449,6 +2738,8 @@
         <v>617</v>
       </c>
       <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1465,6 +2756,12 @@
       <c r="D17" s="6" t="n">
         <v>2312</v>
       </c>
+      <c r="E17" s="6" t="n">
+        <v>2240</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>2025</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1481,6 +2778,12 @@
       <c r="D18" s="6" t="n">
         <v>32482</v>
       </c>
+      <c r="E18" s="6" t="n">
+        <v>28458</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>24801</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1497,6 +2800,12 @@
       <c r="D19" s="6" t="n">
         <v>9831</v>
       </c>
+      <c r="E19" s="6" t="n">
+        <v>6686</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>7983</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1513,6 +2822,12 @@
       <c r="D20" s="6" t="n">
         <v>-20998</v>
       </c>
+      <c r="E20" s="6" t="n">
+        <v>-17288</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-14928</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1529,6 +2844,12 @@
       <c r="D21" s="6" t="n">
         <v>12347</v>
       </c>
+      <c r="E21" s="6" t="n">
+        <v>11055</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>9664</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1545,6 +2866,12 @@
       <c r="D22" s="6" t="n">
         <v>5901</v>
       </c>
+      <c r="E22" s="6" t="n">
+        <v>5740</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>4859</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1561,6 +2888,12 @@
       <c r="D23" s="6" t="n">
         <v>9132</v>
       </c>
+      <c r="E23" s="6" t="n">
+        <v>8332</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>6957</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1577,6 +2910,12 @@
       <c r="D24" s="6" t="n">
         <v>16601</v>
       </c>
+      <c r="E24" s="6" t="n">
+        <v>16816</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>14374</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1593,6 +2932,12 @@
       <c r="D25" s="6" t="n">
         <v>214956</v>
       </c>
+      <c r="E25" s="6" t="n">
+        <v>183868</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>168030</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1609,6 +2954,12 @@
       <c r="D26" s="6" t="n">
         <v>26781</v>
       </c>
+      <c r="E26" s="6" t="n">
+        <v>23725</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>20520</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1625,6 +2976,12 @@
       <c r="D27" s="6" t="n">
         <v>251</v>
       </c>
+      <c r="E27" s="6" t="n">
+        <v>208</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1641,6 +2998,12 @@
       <c r="D28" s="6" t="n">
         <v>6604</v>
       </c>
+      <c r="E28" s="6" t="n">
+        <v>4998</v>
+      </c>
+      <c r="F28" s="6" t="n">
+        <v>1221</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1657,6 +3020,12 @@
       <c r="D29" s="6" t="n">
         <v>102450</v>
       </c>
+      <c r="E29" s="6" t="n">
+        <v>91455</v>
+      </c>
+      <c r="F29" s="6" t="n">
+        <v>77066</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1673,6 +3042,12 @@
       <c r="D30" s="6" t="n">
         <v>7516</v>
       </c>
+      <c r="E30" s="6" t="n">
+        <v>7516</v>
+      </c>
+      <c r="F30" s="6" t="n">
+        <v>7516</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1689,6 +3064,12 @@
       <c r="D31" s="6" t="n">
         <v>76172</v>
       </c>
+      <c r="E31" s="6" t="n">
+        <v>65828</v>
+      </c>
+      <c r="F31" s="6" t="n">
+        <v>55862</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1705,6 +3086,12 @@
       <c r="D32" s="6" t="n">
         <v>69</v>
       </c>
+      <c r="E32" s="6" t="n">
+        <v>21477</v>
+      </c>
+      <c r="F32" s="6" t="n">
+        <v>19649</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1721,6 +3108,12 @@
       <c r="D33" s="6" t="n">
         <v>178</v>
       </c>
+      <c r="E33" s="6" t="n">
+        <v>228</v>
+      </c>
+      <c r="F33" s="6" t="n">
+        <v>206</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="10" t="inlineStr">
@@ -1744,6 +3137,12 @@
       <c r="D36" s="5" t="n">
         <v>5.667016334482242</v>
       </c>
+      <c r="E36" s="5" t="n">
+        <v>1.237847025495751</v>
+      </c>
+      <c r="F36" s="5" t="n">
+        <v>1.27225682798275</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1760,6 +3159,12 @@
       <c r="D37" s="5" t="n">
         <v>0.3</v>
       </c>
+      <c r="E37" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F37" s="5" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1776,6 +3181,12 @@
       <c r="D38" s="5" t="n">
         <v>6042</v>
       </c>
+      <c r="E38" s="5" t="n">
+        <v>5671</v>
+      </c>
+      <c r="F38" s="5" t="n">
+        <v>4328</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1792,6 +3203,12 @@
       <c r="D39" s="5" t="n">
         <v>2.810807793222799</v>
       </c>
+      <c r="E39" s="5" t="n">
+        <v>3.084277851502164</v>
+      </c>
+      <c r="F39" s="5" t="n">
+        <v>2.575730524311135</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1808,6 +3225,12 @@
       <c r="D40" s="5" t="n">
         <v>2.387454485269778</v>
       </c>
+      <c r="E40" s="5" t="n">
+        <v>1.747134544172104</v>
+      </c>
+      <c r="F40" s="5" t="n">
+        <v>2.313539741219963</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1824,6 +3247,12 @@
       <c r="D41" s="5" t="n">
         <v>3.366139585605235</v>
       </c>
+      <c r="E41" s="5" t="n">
+        <v>3.693618443033746</v>
+      </c>
+      <c r="F41" s="5" t="n">
+        <v>3.122455573505655</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1840,6 +3269,12 @@
       <c r="D42" s="5" t="n">
         <v>-5944</v>
       </c>
+      <c r="E42" s="5" t="n">
+        <v>-5667</v>
+      </c>
+      <c r="F42" s="5" t="n">
+        <v>-6729</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1856,6 +3291,12 @@
       <c r="D43" s="5" t="n">
         <v>26538</v>
       </c>
+      <c r="E43" s="5" t="n">
+        <v>22791</v>
+      </c>
+      <c r="F43" s="5" t="n">
+        <v>18072</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1872,6 +3313,12 @@
       <c r="D44" s="5" t="n">
         <v>4.392254220456802</v>
       </c>
+      <c r="E44" s="5" t="n">
+        <v>4.018867924528302</v>
+      </c>
+      <c r="F44" s="5" t="n">
+        <v>4.175600739371534</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1887,6 +3334,4276 @@
       </c>
       <c r="D45" s="5" t="n">
         <v>0.1172</v>
+      </c>
+      <c r="E45" s="5" t="n">
+        <v>0.0034</v>
+      </c>
+      <c r="F45" s="5" t="n">
+        <v>-0.0062</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="21" customWidth="1" min="1" max="1"/>
+    <col width="21" customWidth="1" min="2" max="2"/>
+    <col width="21" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="21" customWidth="1" min="5" max="5"/>
+    <col width="21" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>Raw Extracted AFS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Line Item</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>2023-06-30</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>2021-06-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>Capex</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="n">
+        <v>-6320</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>-5718</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>-4594</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>-3222</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>-2030</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="inlineStr">
+        <is>
+          <t>Cash And Cash Equivalents</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>9946</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>11732</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>12548</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>10665</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>7950</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="inlineStr">
+        <is>
+          <t>Cash Generated Operations</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>21890</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>23628</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>18237</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>15005</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>16124</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="inlineStr">
+        <is>
+          <t>Depreciation Amortisation</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>-8012</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>-6845</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>-6305</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>-5384</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>-5336</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="inlineStr">
+        <is>
+          <t>Dividends Paid</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>-3985</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-3743</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-3370</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-3228</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-2330</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="inlineStr">
+        <is>
+          <t>Finance Costs</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="n">
+        <v>-5115</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-4153</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-3668</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-2993</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-3095</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="inlineStr">
+        <is>
+          <t>Finance Income</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="n">
+        <v>357</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>517</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>453</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>270</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="inlineStr">
+        <is>
+          <t>Gross Profit</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>61442</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>55539</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>51706</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>45022</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>41213</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="8" t="inlineStr">
+        <is>
+          <t>Income Tax Expense</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="n">
+        <v>-2793</v>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>-2805</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>-2812</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-2553</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-2241</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="8" t="inlineStr">
+        <is>
+          <t>Intangible Assets</t>
+        </is>
+      </c>
+      <c r="B12" s="6" t="n">
+        <v>5700</v>
+      </c>
+      <c r="C12" s="6" t="n">
+        <v>4695</v>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>4225</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>3561</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="8" t="inlineStr">
+        <is>
+          <t>Interest Paid</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="n">
+        <v>-5166</v>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-4305</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-3664</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-3034</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-3157</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="8" t="inlineStr">
+        <is>
+          <t>Inventories</t>
+        </is>
+      </c>
+      <c r="B14" s="6" t="n">
+        <v>29748</v>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>28366</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>25090</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>21879</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>18396</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="inlineStr">
+        <is>
+          <t>Investment Property</t>
+        </is>
+      </c>
+      <c r="B15" s="6" t="n">
+        <v>128</v>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>617</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="8" t="inlineStr">
+        <is>
+          <t>Investments And Associates</t>
+        </is>
+      </c>
+      <c r="B16" s="6" t="n">
+        <v>2452</v>
+      </c>
+      <c r="C16" s="6" t="n">
+        <v>2478</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>2312</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>2240</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="8" t="inlineStr">
+        <is>
+          <t>Lease Liabilities Current</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="n">
+        <v>43116</v>
+      </c>
+      <c r="C17" s="6" t="n">
+        <v>36702</v>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>32482</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>28458</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>24801</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="inlineStr">
+        <is>
+          <t>Net Cfo</t>
+        </is>
+      </c>
+      <c r="B18" s="6" t="n">
+        <v>10984</v>
+      </c>
+      <c r="C18" s="6" t="n">
+        <v>13841</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>9831</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>6686</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>7983</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="inlineStr">
+        <is>
+          <t>Operating Expenses</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="n">
+        <v>-22366</v>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-21916</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-20998</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-17288</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>-14928</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="inlineStr">
+        <is>
+          <t>Operating Profit</t>
+        </is>
+      </c>
+      <c r="B20" s="6" t="n">
+        <v>14943</v>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>12662</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>12347</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>11055</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>9664</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="8" t="inlineStr">
+        <is>
+          <t>Profit After Tax</t>
+        </is>
+      </c>
+      <c r="B21" s="6" t="n">
+        <v>7583</v>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>6221</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>5901</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>5740</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>4859</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="8" t="inlineStr">
+        <is>
+          <t>Profit Before Tax</t>
+        </is>
+      </c>
+      <c r="B22" s="6" t="n">
+        <v>10185</v>
+      </c>
+      <c r="C22" s="6" t="n">
+        <v>9026</v>
+      </c>
+      <c r="D22" s="6" t="n">
+        <v>9132</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>8332</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>6957</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="8" t="inlineStr">
+        <is>
+          <t>Property Plant Equipment</t>
+        </is>
+      </c>
+      <c r="B23" s="6" t="n">
+        <v>22536</v>
+      </c>
+      <c r="C23" s="6" t="n">
+        <v>19672</v>
+      </c>
+      <c r="D23" s="6" t="n">
+        <v>16601</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>16816</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>14374</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="8" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="B24" s="6" t="n">
+        <v>252701</v>
+      </c>
+      <c r="C24" s="6" t="n">
+        <v>232088</v>
+      </c>
+      <c r="D24" s="6" t="n">
+        <v>214956</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>183868</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>168030</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="8" t="inlineStr">
+        <is>
+          <t>Right Of Use Assets</t>
+        </is>
+      </c>
+      <c r="B25" s="6" t="n">
+        <v>36090</v>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>30469</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>26781</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>23725</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>20520</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="8" t="inlineStr">
+        <is>
+          <t>Share Of Profit Associates</t>
+        </is>
+      </c>
+      <c r="B26" s="6" t="n">
+        <v>250</v>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>268</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>251</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>208</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="8" t="inlineStr">
+        <is>
+          <t>Short Term Borrowings</t>
+        </is>
+      </c>
+      <c r="B27" s="6" t="n">
+        <v>1863</v>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>2895</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>6604</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>4998</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>Total Assets</t>
+        </is>
+      </c>
+      <c r="B28" s="6" t="n">
+        <v>124944</v>
+      </c>
+      <c r="C28" s="6" t="n">
+        <v>112328</v>
+      </c>
+      <c r="D28" s="6" t="n">
+        <v>102450</v>
+      </c>
+      <c r="E28" s="6" t="n">
+        <v>91455</v>
+      </c>
+      <c r="F28" s="6" t="n">
+        <v>77066</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>Total Equity</t>
+        </is>
+      </c>
+      <c r="B29" s="6" t="n">
+        <v>7516</v>
+      </c>
+      <c r="C29" s="6" t="n">
+        <v>7516</v>
+      </c>
+      <c r="D29" s="6" t="n">
+        <v>7516</v>
+      </c>
+      <c r="E29" s="6" t="n">
+        <v>7516</v>
+      </c>
+      <c r="F29" s="6" t="n">
+        <v>7516</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>Total Liabilities</t>
+        </is>
+      </c>
+      <c r="B30" s="6" t="n">
+        <v>94827</v>
+      </c>
+      <c r="C30" s="6" t="n">
+        <v>84604</v>
+      </c>
+      <c r="D30" s="6" t="n">
+        <v>76172</v>
+      </c>
+      <c r="E30" s="6" t="n">
+        <v>65828</v>
+      </c>
+      <c r="F30" s="6" t="n">
+        <v>55862</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="8" t="inlineStr">
+        <is>
+          <t>Trade Payables</t>
+        </is>
+      </c>
+      <c r="B31" s="6" t="n">
+        <v>76</v>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>86</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>69</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>21477</v>
+      </c>
+      <c r="F31" s="6" t="n">
+        <v>19649</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="8" t="inlineStr">
+        <is>
+          <t>Trade Receivables</t>
+        </is>
+      </c>
+      <c r="B32" s="6" t="n">
+        <v>585</v>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>416</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>178</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>228</v>
+      </c>
+      <c r="F32" s="6" t="n">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D151"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="44" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="16" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Canonical Key</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Period</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>capex</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Capex</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>-6320</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>capex</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Capex</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>-5718</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>capex</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Capex</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2023-06-30</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>-4594</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>capex</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Capex</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>-3222</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>capex</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Capex</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2021-06-30</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>-2030</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>cash_and_cash_equivalents</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cash And Cash Equivalents</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>9946</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>cash_and_cash_equivalents</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cash And Cash Equivalents</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>11732</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>cash_and_cash_equivalents</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cash And Cash Equivalents</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2023-06-30</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>12548</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>cash_and_cash_equivalents</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cash And Cash Equivalents</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>10665</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>cash_and_cash_equivalents</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cash And Cash Equivalents</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2021-06-30</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>7950</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>cash_generated_operations</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cash Generated Operations</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>21890</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>cash_generated_operations</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Cash Generated Operations</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>23628</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>cash_generated_operations</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Cash Generated Operations</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2023-06-30</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>18237</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>cash_generated_operations</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Cash Generated Operations</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>15005</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>cash_generated_operations</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Cash Generated Operations</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2021-06-30</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>16124</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>depreciation_amortisation</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Depreciation Amortisation</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>-8012</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>depreciation_amortisation</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Depreciation Amortisation</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>-6845</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>depreciation_amortisation</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Depreciation Amortisation</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2023-06-30</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>-6305</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>depreciation_amortisation</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Depreciation Amortisation</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>-5384</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>depreciation_amortisation</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Depreciation Amortisation</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2021-06-30</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>-5336</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>dividends_paid</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Dividends Paid</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>-3985</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>dividends_paid</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Dividends Paid</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>-3743</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>dividends_paid</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Dividends Paid</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2023-06-30</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>-3370</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>dividends_paid</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Dividends Paid</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>-3228</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>dividends_paid</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Dividends Paid</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2021-06-30</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>-2330</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>finance_costs</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Finance Costs</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>-5115</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>finance_costs</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Finance Costs</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>-4153</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>finance_costs</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Finance Costs</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2023-06-30</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>-3668</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>finance_costs</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Finance Costs</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>-2993</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>finance_costs</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Finance Costs</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2021-06-30</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>-3095</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>finance_income</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Finance Income</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>finance_income</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Finance Income</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>finance_income</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Finance Income</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2023-06-30</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>finance_income</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Finance Income</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>finance_income</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Finance Income</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2021-06-30</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>gross_profit</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Gross Profit</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>61442</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>gross_profit</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Gross Profit</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>55539</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>gross_profit</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Gross Profit</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2023-06-30</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>51706</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>gross_profit</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Gross Profit</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>45022</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>gross_profit</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Gross Profit</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2021-06-30</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>41213</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>income_tax_expense</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Income Tax Expense</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>-2793</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>income_tax_expense</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Income Tax Expense</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>-2805</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>income_tax_expense</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Income Tax Expense</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2023-06-30</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>-2812</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>income_tax_expense</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Income Tax Expense</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>-2553</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>income_tax_expense</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Income Tax Expense</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2021-06-30</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>-2241</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>intangible_assets</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Intangible Assets</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>intangible_assets</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Intangible Assets</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>intangible_assets</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Intangible Assets</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2023-06-30</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>4225</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>intangible_assets</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Intangible Assets</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>3561</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>intangible_assets</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Intangible Assets</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2021-06-30</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>interest_paid</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Interest Paid</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>-5166</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>interest_paid</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Interest Paid</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>-4305</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>interest_paid</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Interest Paid</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2023-06-30</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>-3664</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>interest_paid</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Interest Paid</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>-3034</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>interest_paid</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Interest Paid</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2021-06-30</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>-3157</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>inventories</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Inventories</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>29748</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>inventories</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Inventories</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>28366</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>inventories</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Inventories</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2023-06-30</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>25090</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>inventories</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Inventories</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>21879</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>inventories</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Inventories</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2021-06-30</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>18396</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>investment_property</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Investment Property</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>investment_property</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Investment Property</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>investment_property</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Investment Property</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2023-06-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>investment_property</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Investment Property</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>investment_property</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Investment Property</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2021-06-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>investments_and_associates</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Investments And Associates</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>investments_and_associates</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Investments And Associates</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>investments_and_associates</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Investments And Associates</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2023-06-30</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>investments_and_associates</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Investments And Associates</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>investments_and_associates</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Investments And Associates</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2021-06-30</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>lease_liabilities_current</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Lease Liabilities Current</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>43116</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>lease_liabilities_current</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Lease Liabilities Current</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>36702</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>lease_liabilities_current</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Lease Liabilities Current</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2023-06-30</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>32482</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>lease_liabilities_current</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Lease Liabilities Current</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>28458</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>lease_liabilities_current</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Lease Liabilities Current</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2021-06-30</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>24801</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>net_cfo</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Net Cfo</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>10984</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>net_cfo</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Net Cfo</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>13841</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>net_cfo</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Net Cfo</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2023-06-30</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>9831</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>net_cfo</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Net Cfo</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>6686</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>net_cfo</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Net Cfo</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2021-06-30</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>7983</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>operating_expenses</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Operating Expenses</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>-22366</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>operating_expenses</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Operating Expenses</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>-21916</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>operating_expenses</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Operating Expenses</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2023-06-30</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>-20998</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>operating_expenses</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Operating Expenses</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>-17288</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>operating_expenses</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Operating Expenses</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2021-06-30</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>-14928</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>operating_profit</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Operating Profit</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>14943</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>operating_profit</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Operating Profit</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>12662</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>operating_profit</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Operating Profit</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>2023-06-30</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>12347</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>operating_profit</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Operating Profit</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>11055</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>operating_profit</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Operating Profit</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2021-06-30</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>9664</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>profit_after_tax</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Profit After Tax</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>7583</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>profit_after_tax</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Profit After Tax</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>6221</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>profit_after_tax</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Profit After Tax</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>2023-06-30</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>5901</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>profit_after_tax</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Profit After Tax</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>5740</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>profit_after_tax</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Profit After Tax</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2021-06-30</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>4859</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>profit_before_tax</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Profit Before Tax</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>10185</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>profit_before_tax</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Profit Before Tax</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>9026</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>profit_before_tax</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Profit Before Tax</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>2023-06-30</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>9132</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>profit_before_tax</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Profit Before Tax</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>8332</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>profit_before_tax</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Profit Before Tax</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>2021-06-30</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>6957</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>property_plant_equipment</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Property Plant Equipment</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>22536</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>property_plant_equipment</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Property Plant Equipment</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>19672</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>property_plant_equipment</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Property Plant Equipment</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>2023-06-30</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>16601</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>property_plant_equipment</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Property Plant Equipment</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>16816</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>property_plant_equipment</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Property Plant Equipment</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>2021-06-30</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>14374</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>revenue</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>252701</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>revenue</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>232088</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>revenue</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>2023-06-30</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>214956</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>revenue</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>183868</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>revenue</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>2021-06-30</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>168030</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>right_of_use_assets</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Right Of Use Assets</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>36090</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>right_of_use_assets</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Right Of Use Assets</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>30469</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>right_of_use_assets</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Right Of Use Assets</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>2023-06-30</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>26781</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>right_of_use_assets</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Right Of Use Assets</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>23725</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>right_of_use_assets</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Right Of Use Assets</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2021-06-30</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>20520</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>share_of_profit_associates</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Share Of Profit Associates</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>share_of_profit_associates</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Share Of Profit Associates</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>share_of_profit_associates</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Share Of Profit Associates</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>2023-06-30</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>share_of_profit_associates</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Share Of Profit Associates</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>share_of_profit_associates</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Share Of Profit Associates</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>2021-06-30</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>short_term_borrowings</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Short Term Borrowings</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>short_term_borrowings</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Short Term Borrowings</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>short_term_borrowings</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Short Term Borrowings</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>2023-06-30</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>6604</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>short_term_borrowings</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Short Term Borrowings</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>4998</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>short_term_borrowings</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Short Term Borrowings</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>2021-06-30</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>total_assets</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Total Assets</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>124944</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>total_assets</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Total Assets</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>112328</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>total_assets</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Total Assets</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>2023-06-30</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>102450</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>total_assets</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Total Assets</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>91455</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>total_assets</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Total Assets</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>2021-06-30</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>77066</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>total_equity</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Total Equity</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>7516</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>total_equity</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Total Equity</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>7516</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>total_equity</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Total Equity</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>2023-06-30</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>7516</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>total_equity</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Total Equity</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>7516</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>total_equity</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Total Equity</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>2021-06-30</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>7516</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>total_liabilities</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Total Liabilities</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>94827</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>total_liabilities</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Total Liabilities</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>84604</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>total_liabilities</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Total Liabilities</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>2023-06-30</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>76172</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>total_liabilities</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Total Liabilities</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>65828</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>total_liabilities</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Total Liabilities</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>2021-06-30</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>55862</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>trade_payables</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Trade Payables</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>trade_payables</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Trade Payables</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>trade_payables</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Trade Payables</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>2023-06-30</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>trade_payables</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Trade Payables</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>21477</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>trade_payables</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Trade Payables</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>2021-06-30</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>19649</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>trade_receivables</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Trade Receivables</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>trade_receivables</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Trade Receivables</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>trade_receivables</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Trade Receivables</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>2023-06-30</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>trade_receivables</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Trade Receivables</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>trade_receivables</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Trade Receivables</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>2021-06-30</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="23" customWidth="1" min="2" max="2"/>
+    <col width="23" customWidth="1" min="3" max="3"/>
+    <col width="23" customWidth="1" min="4" max="4"/>
+    <col width="23" customWidth="1" min="5" max="5"/>
+    <col width="23" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>Adjusted Financials</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Line Item</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>2023-06-30</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>2021-06-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>Cash And Cash Equivalents</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="n">
+        <v>9946</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>11732</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>12548</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>10665</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>7950</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="inlineStr">
+        <is>
+          <t>Operating Profit</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>14943</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>12662</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>12347</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>11055</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>9664</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="inlineStr">
+        <is>
+          <t>Profit After Tax</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>7583</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>6221</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>5901</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>5740</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>4859</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>252701</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>232088</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>214956</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>183868</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>168030</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Total Assets</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>124944</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>112328</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>102450</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>91455</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>77066</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Total Equity</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="n">
+        <v>7516</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>7516</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>7516</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>7516</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>7516</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Total Liabilities</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="n">
+        <v>94827</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>84604</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>76172</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>65828</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>55862</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>Ratio Engine</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Line Item</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>2023-06-30</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>2021-06-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>Current Ratio</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="n">
+        <v>20.77307890665291</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>13.59074136195907</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>5.667016334482242</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>1.237847025495751</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>1.27225682798275</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="inlineStr">
+        <is>
+          <t>Dso Days</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="inlineStr">
+        <is>
+          <t>Ebitda</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>6931</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>5817</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>6042</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>5671</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>4328</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="inlineStr">
+        <is>
+          <t>Ebitda Margin</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>2.742767143778616</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>2.506376891523905</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>2.810807793222799</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>3.084277851502164</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>2.575730524311135</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="inlineStr">
+        <is>
+          <t>Fcf Conversion</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>2.49660943586784</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>3.362386109678528</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>2.387454485269778</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>1.747134544172104</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>2.313539741219963</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="inlineStr">
+        <is>
+          <t>Interest Cover</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="n">
+        <v>2.921407624633431</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>3.048880327474115</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>3.366139585605235</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>3.693618443033746</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>3.122455573505655</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="inlineStr">
+        <is>
+          <t>Net Debt Ex Leases</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="n">
+        <v>-8083</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>-8837</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>-5944</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>-5667</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>-6729</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="inlineStr">
+        <is>
+          <t>Net Debt Incl Leases</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>35033</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>27865</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>26538</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>22791</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>18072</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="8" t="inlineStr">
+        <is>
+          <t>Net Debt To Ebitda</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="n">
+        <v>5.054537584764104</v>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>4.790269898573148</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>4.392254220456802</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>4.018867924528302</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>4.175600739371534</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="8" t="inlineStr">
+        <is>
+          <t>Wc Intensity</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>0.1197</v>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0.1236</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.1172</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.0034</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>-0.0062</v>
       </c>
     </row>
   </sheetData>
